--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3369.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3369.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.230056012716475</v>
+        <v>2.862658023834229</v>
       </c>
       <c r="B1">
-        <v>2.595392209153013</v>
+        <v>3.087390422821045</v>
       </c>
       <c r="C1">
-        <v>4.833089093871624</v>
+        <v>2.159234523773193</v>
       </c>
       <c r="D1">
-        <v>2.945109935030999</v>
+        <v>1.944765686988831</v>
       </c>
       <c r="E1">
-        <v>1.172101743959133</v>
+        <v>1.790371894836426</v>
       </c>
     </row>
   </sheetData>
